--- a/Results/combinatorial_biochemical_markers_top_10_joint.xlsx
+++ b/Results/combinatorial_biochemical_markers_top_10_joint.xlsx
@@ -31,34 +31,34 @@
     <t>Theil-Sen Score</t>
   </si>
   <si>
-    <t>Urea*Phosphate/Lactate/Bilirubin</t>
-  </si>
-  <si>
-    <t>Creatinine*Urea/Lactate/Bilirubin</t>
-  </si>
-  <si>
-    <t>Cholesterol*Urea/Lactate/Bilirubin</t>
-  </si>
-  <si>
-    <t>Urea*Glucose/Uric acid/MCFA</t>
-  </si>
-  <si>
-    <t>Creatinine*Phosphate/Lactate/Uric acid</t>
-  </si>
-  <si>
-    <t>Uric acid*MCFA/Urea/Glucose</t>
-  </si>
-  <si>
-    <t>Urea*Phosphate/Lactate/MCFA</t>
-  </si>
-  <si>
-    <t>Phosphate/Lactate/Uric acid</t>
-  </si>
-  <si>
-    <t>Phosphate*Chloride/Lactate/Uric acid</t>
-  </si>
-  <si>
-    <t>Creatinine*Urea/Lactate/MCFA</t>
+    <t>1/MCFA</t>
+  </si>
+  <si>
+    <t>TAG*Phosphate/Lactate/Uric acid</t>
+  </si>
+  <si>
+    <t>Phosphate*Chloride/Lactate/Bilirubin</t>
+  </si>
+  <si>
+    <t>Lactate*Bilirubin/Creatinine/Urea</t>
+  </si>
+  <si>
+    <t>Urea*Chloride/Creatinine/Lactate</t>
+  </si>
+  <si>
+    <t>Creatinine*Bilirubin/Lactate/MCFA</t>
+  </si>
+  <si>
+    <t>Glucose*Uric acid/Cholesterol/MCFA</t>
+  </si>
+  <si>
+    <t>Creatinine/Chloride/Glucose</t>
+  </si>
+  <si>
+    <t>Cholesterol*Phosphate/Glucose</t>
+  </si>
+  <si>
+    <t>Creatinine*Urea/Cholesterol/MCFA</t>
   </si>
 </sst>
 </file>
@@ -447,16 +447,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>0.7929125352405939</v>
+        <v>0.8712644596106346</v>
       </c>
       <c r="E2">
-        <v>0.2594190559431948</v>
+        <v>0.3079214055649672</v>
       </c>
       <c r="F2">
-        <v>1.669345147398976</v>
+        <v>0.6119713518248939</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -467,16 +467,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.6787357106185693</v>
+        <v>0.8580336671337442</v>
       </c>
       <c r="E3">
-        <v>0.2462185111392407</v>
+        <v>0.4244953429634052</v>
       </c>
       <c r="F3">
-        <v>1.534484047942235</v>
+        <v>0.9047300926984061</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -487,16 +487,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
-        <v>0.6701882487062458</v>
+        <v>0.8141224264010241</v>
       </c>
       <c r="E4">
-        <v>0.2304766706612936</v>
+        <v>0.2755785311377699</v>
       </c>
       <c r="F4">
-        <v>1.219462060358727</v>
+        <v>1.082765568693528</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0.8626643700855683</v>
+        <v>0.756005642689406</v>
       </c>
       <c r="E5">
-        <v>0.6536786960167588</v>
+        <v>0.2714552727017224</v>
       </c>
       <c r="F5">
-        <v>0.9185361894754445</v>
+        <v>1.609417179529522</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -527,16 +527,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>0.8105660707680891</v>
+        <v>0.7303204961956202</v>
       </c>
       <c r="E6">
-        <v>0.3214853492634487</v>
+        <v>0.3245023606356114</v>
       </c>
       <c r="F6">
-        <v>1.897554222222393</v>
+        <v>0.713173773027554</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -547,16 +547,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0.8102900449662116</v>
+        <v>0.4651677053423824</v>
       </c>
       <c r="E7">
-        <v>0.5625931706172123</v>
+        <v>0.1265233972830887</v>
       </c>
       <c r="F7">
-        <v>1.588351836599766</v>
+        <v>1.025087932764702</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -567,16 +567,16 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0.8074645092302214</v>
+        <v>0.9470462515660071</v>
       </c>
       <c r="E8">
-        <v>0.3818435934001358</v>
+        <v>0.1690887845701142</v>
       </c>
       <c r="F8">
-        <v>1.436135373876269</v>
+        <v>0.1239464277591502</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -587,16 +587,16 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>0.7995912969018619</v>
+        <v>0.9360623403088842</v>
       </c>
       <c r="E9">
-        <v>0.3460114618266673</v>
+        <v>0.1380207214454206</v>
       </c>
       <c r="F9">
-        <v>1.765379122749378</v>
+        <v>0.9449841439239425</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -607,16 +607,16 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>0.7952851988944316</v>
+        <v>0.9159149231076583</v>
       </c>
       <c r="E10">
-        <v>0.3564217735987948</v>
+        <v>0.2374332823567326</v>
       </c>
       <c r="F10">
-        <v>1.635242692982464</v>
+        <v>0.2230800431233731</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -627,16 +627,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>0.7914250640506895</v>
+        <v>0.9002531715307412</v>
       </c>
       <c r="E11">
-        <v>0.3500833300633873</v>
+        <v>0.4541156753022031</v>
       </c>
       <c r="F11">
-        <v>1.057615463468688</v>
+        <v>0.9122217975242407</v>
       </c>
     </row>
   </sheetData>
